--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_01_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_01_end.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Bison, who was taken back to the base, is forced to accept Penguin Logistics' "excellent corporate culture." However, in the midst of the chatter, Exusiai accidentally sets off a bomb left behind by the enemy…
+    <t xml:space="preserve">Bison, who was taken back to the base, is forced to accept Penguin Logistics' 'excellent corporate culture.' However, in the midst of the chatter, Exusiai accidentally sets off a bomb left behind by the enemy…
 </t>
   </si>
   <si>

--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_01_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_01_end.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Bison, who was taken back to the base, is forced to accept Penguin Logistics' 'excellent corporate culture.' However, in the midst of the chatter, Exusiai accidentally sets off a bomb left behind by the enemy…
+    <t xml:space="preserve">Bison, who was taken back to the base, is forced to accept Penguin Logistics' 'excellent corporate culture.' However, in the midst of the chatter, Exusiai accidentally sets off a bomb left behind by the enemy...
 </t>
   </si>
   <si>
